--- a/data/trans_camb/P14B35-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P14B35-Dificultad-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.511933903966559</v>
+        <v>1.48756295208918</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2382354636743389</v>
+        <v>0.2252263440683569</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.534180922667671</v>
+        <v>2.424906188296861</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.404684193397506</v>
+        <v>3.366925481484016</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.169859628656732</v>
+        <v>1.065467697340752</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.580071682339733</v>
+        <v>5.483007361873679</v>
       </c>
     </row>
     <row r="7">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4515544832628632</v>
+        <v>0.4488661712086829</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2915087259358385</v>
+        <v>0.28248819012933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.010539608635339</v>
+        <v>1.06310642747106</v>
       </c>
     </row>
     <row r="12">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.470933816635593</v>
+        <v>1.527403645511703</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.356876058023868</v>
+        <v>1.428654603382226</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.778283992006357</v>
+        <v>2.753936017998734</v>
       </c>
     </row>
     <row r="13">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3248051293125512</v>
+        <v>0.333267001518557</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1194155913970592</v>
+        <v>0.1190104220432039</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.625073658247588</v>
+        <v>1.648124710986498</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.461009093818995</v>
+        <v>1.483341093760131</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.075258746992612</v>
+        <v>1.118316636307849</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.875310986791388</v>
+        <v>4.015234657771559</v>
       </c>
     </row>
     <row r="19">
@@ -890,7 +890,7 @@
         <v>0.1920798070572061</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.414458739645741</v>
+        <v>5.41445873964574</v>
       </c>
     </row>
     <row r="23">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.958972316488861</v>
+        <v>3.983532823579369</v>
       </c>
     </row>
     <row r="24">
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.558793345250201</v>
+        <v>1.610298270673557</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.116476666070686</v>
+        <v>0.7805116302109542</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.356439157576484</v>
+        <v>7.228387324978865</v>
       </c>
     </row>
     <row r="25">
@@ -990,7 +990,7 @@
         <v>0.4932658936860385</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.193243650209268</v>
+        <v>3.193243650209269</v>
       </c>
     </row>
     <row r="29">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9285825369623099</v>
+        <v>0.9029289275804119</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2991881792571794</v>
+        <v>0.3056113590209491</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.634302641861817</v>
+        <v>2.598373309153188</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.642018849767004</v>
+        <v>1.642729705374679</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7678637478182878</v>
+        <v>0.7749680223154335</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.81471941395528</v>
+        <v>3.864436886929074</v>
       </c>
     </row>
     <row r="31">
